--- a/Fungi Species.xlsx
+++ b/Fungi Species.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User-3754\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User-3754\Desktop\FungiProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CF27F3-83FD-4953-981E-66C015C53FD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D729131-E000-4A6D-9B06-73BB623C118B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EF0C73A-0CA0-473C-A10F-F4014C611FCB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6EF0C73A-0CA0-473C-A10F-F4014C611FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Isolates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Scientific Name</t>
   </si>
@@ -45,12 +46,6 @@
     <t>Ecology</t>
   </si>
   <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Prefered substrate</t>
-  </si>
-  <si>
     <t>Oyster mushroom</t>
   </si>
   <si>
@@ -102,12 +97,6 @@
     <t>brown swordbelt</t>
   </si>
   <si>
-    <t>Pholiota nameko</t>
-  </si>
-  <si>
-    <t>nameko</t>
-  </si>
-  <si>
     <t>Morchella angusticeps</t>
   </si>
   <si>
@@ -151,13 +140,85 @@
   </si>
   <si>
     <t>Stropharia rugosoannulata</t>
+  </si>
+  <si>
+    <t>Mycorrhizal</t>
+  </si>
+  <si>
+    <t>mycorrhizal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saprophytic </t>
+  </si>
+  <si>
+    <t>Other Species</t>
+  </si>
+  <si>
+    <t>Sarcodon imbricatus</t>
+  </si>
+  <si>
+    <t>Auricularia auricula</t>
+  </si>
+  <si>
+    <t>possible to cultivate without trees (?)</t>
+  </si>
+  <si>
+    <t>Scally Hedgehog</t>
+  </si>
+  <si>
+    <t>Mycorrhizal (firs)</t>
+  </si>
+  <si>
+    <t>Wood Ear</t>
+  </si>
+  <si>
+    <t>Saprophytic</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>somewhat rare in NW</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Date Isolated</t>
+  </si>
+  <si>
+    <t>Filter Paper</t>
+  </si>
+  <si>
+    <t>Slant Tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hericium </t>
+  </si>
+  <si>
+    <t>Pleurotus</t>
+  </si>
+  <si>
+    <t>Auricularia</t>
+  </si>
+  <si>
+    <t>Pisolithus</t>
+  </si>
+  <si>
+    <t>Coprinicus comatus</t>
+  </si>
+  <si>
+    <t>Agaricus avrensis</t>
+  </si>
+  <si>
+    <t>Fomitopsis pinicola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +257,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,12 +286,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F775D57-5B3D-47FC-82B9-61CFB2DA0031}">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,59 +631,60 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -620,18 +692,24 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -641,88 +719,314 @@
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87664A75-79D4-49B9-8C2E-B651E98CCC23}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44435</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44438</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44455</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44471</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44482</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44451</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44340</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>